--- a/biology/Botanique/Florent_Simon_Andrieux/Florent_Simon_Andrieux.xlsx
+++ b/biology/Botanique/Florent_Simon_Andrieux/Florent_Simon_Andrieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florent Simon Andrieux, né à Reims le 22 septembre 1761 et décédé dans la même cité le 14 novembre 1835, était un important négociant en vins de Champagne.
 </t>
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce notable des affaires devint président du tribunal de commerce de sa ville. Adjoint au maire de Reims sous l'Empire, il en devint le maire de 1827 à 1832, et demeura ensuite conseiller municipal jusqu'à sa mort. Il fut fait chevalier de la Légion d'honneur le 1er mai 1821.
 Il existe une rue Andrieux (Reims).
-Famille
-Il est le fils de Simon et de son épouse Nicole Margueritte Dubois. Il épousa Marie Lasnier (1768-1842) et eurent comme enfants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Florent_Simon_Andrieux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florent_Simon_Andrieux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Simon et de son épouse Nicole Margueritte Dubois. Il épousa Marie Lasnier (1768-1842) et eurent comme enfants :
 Louis Andrieux †1793,
 Adolphe Andrieux †1795,
 Clémentine Andrieux 1796- qui épousait Jean-Baptiste Barbat,
@@ -527,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Florent_Simon_Andrieux</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Florent_Simon_Andrieux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1er mai 1821)</t>
         </is>
